--- a/financial stability measures continuous.xlsx
+++ b/financial stability measures continuous.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms\SharePoint\Seminar - Documents\Data\Financial Stability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms\OneDrive\Documenten\SeminarFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>1956Q1</t>
   </si>
@@ -806,9 +806,6 @@
     <t>Inflation</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Debt/gdp</t>
   </si>
   <si>
@@ -834,6 +831,12 @@
   </si>
   <si>
     <t>VIX</t>
+  </si>
+  <si>
+    <t>dropme</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1707,15 +1710,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C1" t="s">
         <v>259</v>
@@ -1727,34 +1736,34 @@
         <v>257</v>
       </c>
       <c r="F1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
         <v>264</v>
-      </c>
-      <c r="H1" t="s">
-        <v>265</v>
       </c>
       <c r="I1" t="s">
         <v>256</v>
       </c>
       <c r="J1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" t="s">
         <v>261</v>
       </c>
-      <c r="K1" t="s">
-        <v>266</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="N1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" t="s">
         <v>268</v>
-      </c>
-      <c r="O1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
